--- a/posesiones/1381274.xlsx
+++ b/posesiones/1381274.xlsx
@@ -1895,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>14</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>12</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>11</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>6</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>20</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>7</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>14</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>22</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>6</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>17</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>9</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>17</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>21</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>13</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>26</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>18</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>9</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>13</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58">
         <v>36</v>
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>4</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>6</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>18</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R65">
         <v>10</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R67">
         <v>27</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70">
         <v>18</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R72">
         <v>9</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R73">
         <v>18</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R75">
         <v>14</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R77">
         <v>13</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R83">
         <v>20</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R86">
         <v>28</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R88">
         <v>7</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R92">
         <v>19</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R94">
         <v>11</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R96">
         <v>19</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -6692,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7206,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R111">
         <v>17</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R113">
         <v>14</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R115">
         <v>16</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R117">
         <v>12</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>18</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R120">
         <v>3</v>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R121">
         <v>24</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R123">
         <v>9</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R126">
         <v>26</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8256,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R131">
         <v>17</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R134">
         <v>17</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R140">
         <v>14</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R141">
         <v>20</v>
@@ -8800,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R142">
         <v>21</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R144">
         <v>18</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9000,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R146">
         <v>18</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R148">
         <v>4</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R150">
         <v>13</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R154">
         <v>20</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9494,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R156">
         <v>17</v>
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9826,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9876,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R164">
         <v>29</v>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R167">
         <v>12</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R171">
         <v>25</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R173">
         <v>8</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10420,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R175">
         <v>14</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R177">
         <v>22</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R182">
         <v>18</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10870,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R184">
         <v>7</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R186">
         <v>13</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11076,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R188">
         <v>13</v>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11176,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R190">
         <v>4</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11279,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R200">
         <v>18</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R202">
         <v>8</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R205">
         <v>11</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12390,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R215">
         <v>13</v>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12672,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12722,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R222">
         <v>10</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R224">
         <v>20</v>
@@ -12872,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R227">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13116,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R230">
         <v>4</v>
@@ -13160,10 +13160,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13398,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13674,10 +13674,10 @@
         <v>1</v>
       </c>
       <c r="P242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13774,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R245">
         <v>17</v>
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R246">
         <v>14</v>
@@ -13930,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R247">
         <v>19</v>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14033,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R249">
         <v>8</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14133,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R251">
         <v>19</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14327,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -14380,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R256">
         <v>19</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R257">
         <v>6</v>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R259">
         <v>17</v>
@@ -14586,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14636,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R261">
         <v>10</v>
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R264">
         <v>28</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R266">
         <v>19</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R271">
         <v>33</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15265,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R280">
         <v>8</v>
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15653,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>10</v>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15753,7 +15753,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R284">
         <v>11</v>
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R285">
         <v>26</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>8</v>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16291,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R295">
         <v>2</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16441,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R298">
         <v>15</v>
@@ -16494,7 +16494,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R299">
         <v>17</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16597,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R301">
         <v>12</v>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R303">
         <v>13</v>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16941,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R309">
         <v>21</v>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17332,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17382,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R317">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R318">
         <v>16</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R319">
         <v>14</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R321">
         <v>12</v>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17694,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R323">
         <v>19</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17838,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R326">
         <v>17</v>
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R327">
         <v>23</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18129,7 +18129,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18226,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R334">
         <v>0</v>
@@ -18279,7 +18279,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R335">
         <v>17</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18382,7 +18382,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R337">
         <v>26</v>
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R339">
         <v>12</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18582,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19008,7 +19008,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R350">
         <v>12</v>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19155,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R353">
         <v>16</v>
@@ -19205,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19255,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R355">
         <v>14</v>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19358,7 +19358,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R357">
         <v>11</v>
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19449,10 +19449,10 @@
         <v>1</v>
       </c>
       <c r="P359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q359">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19640,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19681,10 +19681,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19778,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R367">
         <v>18</v>
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R369">
         <v>19</v>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20031,7 +20031,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R371">
         <v>13</v>
@@ -20084,7 +20084,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R372">
         <v>19</v>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20184,7 +20184,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R374">
         <v>10</v>
@@ -20237,7 +20237,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R375">
         <v>23</v>
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20340,7 +20340,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20443,7 +20443,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R379">
         <v>21</v>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R381">
         <v>11</v>
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20834,7 +20834,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R387">
         <v>20</v>
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20978,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21075,7 +21075,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R392">
         <v>15</v>
@@ -21128,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21178,7 +21178,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R394">
         <v>20</v>
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21281,7 +21281,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R396">
         <v>12</v>
@@ -21334,7 +21334,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R397">
         <v>18</v>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21428,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21478,7 +21478,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R400">
         <v>16</v>
@@ -21528,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21910,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R409">
         <v>30</v>
@@ -21963,7 +21963,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R413">
         <v>22</v>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22257,7 +22257,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22354,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22404,7 +22404,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R419">
         <v>21</v>
@@ -22457,7 +22457,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22560,7 +22560,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R422">
         <v>15</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22707,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R425">
         <v>15</v>
@@ -22757,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22854,7 +22854,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R428">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R429">
         <v>16</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23010,7 +23010,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R431">
         <v>10</v>
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23104,7 +23104,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23248,7 +23248,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R436">
         <v>12</v>
@@ -23301,7 +23301,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R437">
         <v>18</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23404,7 +23404,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R439">
         <v>16</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23507,7 +23507,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R441">
         <v>10</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23604,7 +23604,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23651,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23745,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R448">
         <v>10</v>
@@ -23895,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R449">
         <v>17</v>
@@ -23948,7 +23948,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R450">
         <v>21</v>
@@ -23998,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24048,7 +24048,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R452">
         <v>8</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24201,7 +24201,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R455">
         <v>11</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R457">
         <v>14</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24401,7 +24401,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R459">
         <v>26</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R461">
         <v>18</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24792,7 +24792,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R467">
         <v>20</v>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24933,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25027,7 +25027,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25124,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R474">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>1</v>
       </c>
       <c r="P475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q475">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25212,10 +25212,10 @@
         <v>1</v>
       </c>
       <c r="P476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q476">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25265,7 +25265,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R477">
         <v>14</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25418,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R480">
         <v>21</v>
@@ -25468,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25518,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R482">
         <v>9</v>
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25668,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25762,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25809,7 +25809,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25859,7 +25859,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R489">
         <v>19</v>
@@ -25912,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R490">
         <v>17</v>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26056,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26150,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26197,7 +26197,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26244,7 +26244,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26294,7 +26294,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R498">
         <v>27</v>
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="R499">
         <v>10</v>
@@ -26397,7 +26397,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26588,7 +26588,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26638,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R505">
         <v>25</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26735,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26782,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26829,7 +26829,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26876,7 +26876,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26976,7 +26976,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R512">
         <v>23</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R514">
         <v>10</v>
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27176,7 +27176,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27320,7 +27320,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R519">
         <v>8</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R520">
         <v>14</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27473,7 +27473,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R522">
         <v>16</v>
@@ -27526,7 +27526,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R523">
         <v>19</v>
@@ -27579,7 +27579,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R524">
         <v>20</v>
@@ -27629,7 +27629,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27729,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R527">
         <v>18</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27829,7 +27829,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28020,7 +28020,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R533">
         <v>6</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28117,7 +28117,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R535">
         <v>22</v>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28217,7 +28217,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R537">
         <v>0</v>
@@ -28261,10 +28261,10 @@
         <v>1</v>
       </c>
       <c r="P538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q538">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
